--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.69758550535585</v>
+        <v>0.867102</v>
       </c>
       <c r="H2">
-        <v>2.69758550535585</v>
+        <v>2.601306</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1822127481805035</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1873730734573072</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.0711453992741</v>
+        <v>3.470843666666667</v>
       </c>
       <c r="N2">
-        <v>3.0711453992741</v>
+        <v>10.412531</v>
       </c>
       <c r="O2">
-        <v>0.05247119903400454</v>
+        <v>0.05653984104486641</v>
       </c>
       <c r="P2">
-        <v>0.05247119903400454</v>
+        <v>0.0651263661336549</v>
       </c>
       <c r="Q2">
-        <v>8.284677313922117</v>
+        <v>3.009575485054</v>
       </c>
       <c r="R2">
-        <v>8.284677313922117</v>
+        <v>27.086179365486</v>
       </c>
       <c r="S2">
-        <v>0.05247119903400454</v>
+        <v>0.01030227981847394</v>
       </c>
       <c r="T2">
-        <v>0.05247119903400454</v>
+        <v>0.0122029273855688</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.69758550535585</v>
+        <v>0.867102</v>
       </c>
       <c r="H3">
-        <v>2.69758550535585</v>
+        <v>2.601306</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1822127481805035</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1873730734573072</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.4857968873752</v>
+        <v>32.24261766666667</v>
       </c>
       <c r="N3">
-        <v>30.4857968873752</v>
+        <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5208565887391037</v>
+        <v>0.5252303626496961</v>
       </c>
       <c r="P3">
-        <v>0.5208565887391037</v>
+        <v>0.6049954204026234</v>
       </c>
       <c r="Q3">
-        <v>82.23804380260583</v>
+        <v>27.957638264002</v>
       </c>
       <c r="R3">
-        <v>82.23804380260583</v>
+        <v>251.618744376018</v>
       </c>
       <c r="S3">
-        <v>0.5208565887391037</v>
+        <v>0.09570366780624359</v>
       </c>
       <c r="T3">
-        <v>0.5208565887391037</v>
+        <v>0.1133598513484352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.69758550535585</v>
+        <v>0.867102</v>
       </c>
       <c r="H4">
-        <v>2.69758550535585</v>
+        <v>2.601306</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1822127481805035</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1873730734573072</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9240875172576321</v>
+        <v>0.9959919999999999</v>
       </c>
       <c r="N4">
-        <v>0.9240875172576321</v>
+        <v>2.987976</v>
       </c>
       <c r="O4">
-        <v>0.01578823980601016</v>
+        <v>0.01622465163233374</v>
       </c>
       <c r="P4">
-        <v>0.01578823980601016</v>
+        <v>0.01868863765923708</v>
       </c>
       <c r="Q4">
-        <v>2.492805092234462</v>
+        <v>0.8636266551839999</v>
       </c>
       <c r="R4">
-        <v>2.492805092234462</v>
+        <v>7.772639896656</v>
       </c>
       <c r="S4">
-        <v>0.01578823980601016</v>
+        <v>0.002956338362198823</v>
       </c>
       <c r="T4">
-        <v>0.01578823980601016</v>
+        <v>0.003501747476941228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,1363 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.867102</v>
+      </c>
+      <c r="H5">
+        <v>2.601306</v>
+      </c>
+      <c r="I5">
+        <v>0.1822127481805035</v>
+      </c>
+      <c r="J5">
+        <v>0.1873730734573072</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N5">
+        <v>1.192074</v>
+      </c>
+      <c r="O5">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P5">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q5">
+        <v>0.344549916516</v>
+      </c>
+      <c r="R5">
+        <v>3.100949248644</v>
+      </c>
+      <c r="S5">
+        <v>0.001179451942311384</v>
+      </c>
+      <c r="T5">
+        <v>0.001397046737265372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.867102</v>
+      </c>
+      <c r="H6">
+        <v>2.601306</v>
+      </c>
+      <c r="I6">
+        <v>0.1822127481805035</v>
+      </c>
+      <c r="J6">
+        <v>0.1873730734573072</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>24.2807625</v>
+      </c>
+      <c r="N6">
+        <v>48.561525</v>
+      </c>
+      <c r="O6">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P6">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q6">
+        <v>21.053897725275</v>
+      </c>
+      <c r="R6">
+        <v>126.32338635165</v>
+      </c>
+      <c r="S6">
+        <v>0.07207101025127573</v>
+      </c>
+      <c r="T6">
+        <v>0.0569115005090966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.84797</v>
+      </c>
+      <c r="H7">
+        <v>8.54391</v>
+      </c>
+      <c r="I7">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J7">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.470843666666667</v>
+      </c>
+      <c r="N7">
+        <v>10.412531</v>
+      </c>
+      <c r="O7">
+        <v>0.05653984104486641</v>
+      </c>
+      <c r="P7">
+        <v>0.0651263661336549</v>
+      </c>
+      <c r="Q7">
+        <v>9.884858637356668</v>
+      </c>
+      <c r="R7">
+        <v>88.96372773621002</v>
+      </c>
+      <c r="S7">
+        <v>0.03383752298416936</v>
+      </c>
+      <c r="T7">
+        <v>0.0400801417898683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.84797</v>
+      </c>
+      <c r="H8">
+        <v>8.54391</v>
+      </c>
+      <c r="I8">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J8">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N8">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O8">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P8">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q8">
+        <v>91.82600783613667</v>
+      </c>
+      <c r="R8">
+        <v>826.4340705252301</v>
+      </c>
+      <c r="S8">
+        <v>0.3143357699580298</v>
+      </c>
+      <c r="T8">
+        <v>0.3723269648147542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.69758550535585</v>
-      </c>
-      <c r="H5">
-        <v>2.69758550535585</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>24.0490868279583</v>
-      </c>
-      <c r="N5">
-        <v>24.0490868279583</v>
-      </c>
-      <c r="O5">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="P5">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="Q5">
-        <v>64.87446804414461</v>
-      </c>
-      <c r="R5">
-        <v>64.87446804414461</v>
-      </c>
-      <c r="S5">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="T5">
-        <v>0.4108839724208816</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.84797</v>
+      </c>
+      <c r="H9">
+        <v>8.54391</v>
+      </c>
+      <c r="I9">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J9">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N9">
+        <v>2.987976</v>
+      </c>
+      <c r="O9">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P9">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q9">
+        <v>2.83655533624</v>
+      </c>
+      <c r="R9">
+        <v>25.52899802616</v>
+      </c>
+      <c r="S9">
+        <v>0.009710002935515525</v>
+      </c>
+      <c r="T9">
+        <v>0.01150138249237611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.84797</v>
+      </c>
+      <c r="H10">
+        <v>8.54391</v>
+      </c>
+      <c r="I10">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J10">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.192074</v>
+      </c>
+      <c r="O10">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P10">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q10">
+        <v>1.13166366326</v>
+      </c>
+      <c r="R10">
+        <v>10.18497296934</v>
+      </c>
+      <c r="S10">
+        <v>0.003873873832772329</v>
+      </c>
+      <c r="T10">
+        <v>0.004588557281991808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.84797</v>
+      </c>
+      <c r="H11">
+        <v>8.54391</v>
+      </c>
+      <c r="I11">
+        <v>0.5984721986982252</v>
+      </c>
+      <c r="J11">
+        <v>0.6154211292491624</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.2807625</v>
+      </c>
+      <c r="N11">
+        <v>48.561525</v>
+      </c>
+      <c r="O11">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P11">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q11">
+        <v>69.15088317712501</v>
+      </c>
+      <c r="R11">
+        <v>414.90529906275</v>
+      </c>
+      <c r="S11">
+        <v>0.2367150289877382</v>
+      </c>
+      <c r="T11">
+        <v>0.1869240828701719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.030386</v>
+      </c>
+      <c r="H12">
+        <v>0.091158</v>
+      </c>
+      <c r="I12">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J12">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.470843666666667</v>
+      </c>
+      <c r="N12">
+        <v>10.412531</v>
+      </c>
+      <c r="O12">
+        <v>0.05653984104486641</v>
+      </c>
+      <c r="P12">
+        <v>0.0651263661336549</v>
+      </c>
+      <c r="Q12">
+        <v>0.1054650556553333</v>
+      </c>
+      <c r="R12">
+        <v>0.9491855008980001</v>
+      </c>
+      <c r="S12">
+        <v>0.0003610245098779025</v>
+      </c>
+      <c r="T12">
+        <v>0.000427629219558822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.030386</v>
+      </c>
+      <c r="H13">
+        <v>0.091158</v>
+      </c>
+      <c r="I13">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J13">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N13">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P13">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q13">
+        <v>0.9797241804193334</v>
+      </c>
+      <c r="R13">
+        <v>8.817517623774002</v>
+      </c>
+      <c r="S13">
+        <v>0.003353759592251566</v>
+      </c>
+      <c r="T13">
+        <v>0.003972488176792987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.030386</v>
+      </c>
+      <c r="H14">
+        <v>0.091158</v>
+      </c>
+      <c r="I14">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J14">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N14">
+        <v>2.987976</v>
+      </c>
+      <c r="O14">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P14">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q14">
+        <v>0.030264212912</v>
+      </c>
+      <c r="R14">
+        <v>0.272377916208</v>
+      </c>
+      <c r="S14">
+        <v>0.0001035994582803101</v>
+      </c>
+      <c r="T14">
+        <v>0.0001227123208507605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.030386</v>
+      </c>
+      <c r="H15">
+        <v>0.091158</v>
+      </c>
+      <c r="I15">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J15">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.192074</v>
+      </c>
+      <c r="O15">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P15">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q15">
+        <v>0.012074120188</v>
+      </c>
+      <c r="R15">
+        <v>0.108667081692</v>
+      </c>
+      <c r="S15">
+        <v>4.133173112168316E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.895694181139658E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.030386</v>
+      </c>
+      <c r="H16">
+        <v>0.091158</v>
+      </c>
+      <c r="I16">
+        <v>0.006385311723664319</v>
+      </c>
+      <c r="J16">
+        <v>0.006566145862970835</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>24.2807625</v>
+      </c>
+      <c r="N16">
+        <v>48.561525</v>
+      </c>
+      <c r="O16">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P16">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q16">
+        <v>0.7377952493250001</v>
+      </c>
+      <c r="R16">
+        <v>4.426771495950001</v>
+      </c>
+      <c r="S16">
+        <v>0.002525596432132857</v>
+      </c>
+      <c r="T16">
+        <v>0.001994359203956869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.620104</v>
+      </c>
+      <c r="H17">
+        <v>1.860312</v>
+      </c>
+      <c r="I17">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J17">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.470843666666667</v>
+      </c>
+      <c r="N17">
+        <v>10.412531</v>
+      </c>
+      <c r="O17">
+        <v>0.05653984104486641</v>
+      </c>
+      <c r="P17">
+        <v>0.0651263661336549</v>
+      </c>
+      <c r="Q17">
+        <v>2.152284041074667</v>
+      </c>
+      <c r="R17">
+        <v>19.370556369672</v>
+      </c>
+      <c r="S17">
+        <v>0.007367627942912094</v>
+      </c>
+      <c r="T17">
+        <v>0.008726867293006771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.620104</v>
+      </c>
+      <c r="H18">
+        <v>1.860312</v>
+      </c>
+      <c r="I18">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J18">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N18">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O18">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P18">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q18">
+        <v>19.99377618557067</v>
+      </c>
+      <c r="R18">
+        <v>179.943985670136</v>
+      </c>
+      <c r="S18">
+        <v>0.06844203706290941</v>
+      </c>
+      <c r="T18">
+        <v>0.08106877536964517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.620104</v>
+      </c>
+      <c r="H19">
+        <v>1.860312</v>
+      </c>
+      <c r="I19">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J19">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N19">
+        <v>2.987976</v>
+      </c>
+      <c r="O19">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P19">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q19">
+        <v>0.6176186231679999</v>
+      </c>
+      <c r="R19">
+        <v>5.558567608511999</v>
+      </c>
+      <c r="S19">
+        <v>0.00211421175796266</v>
+      </c>
+      <c r="T19">
+        <v>0.002504258573317975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.620104</v>
+      </c>
+      <c r="H20">
+        <v>1.860312</v>
+      </c>
+      <c r="I20">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J20">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.192074</v>
+      </c>
+      <c r="O20">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P20">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q20">
+        <v>0.2464032852319999</v>
+      </c>
+      <c r="R20">
+        <v>2.217629567088</v>
+      </c>
+      <c r="S20">
+        <v>0.000843479622045686</v>
+      </c>
+      <c r="T20">
+        <v>0.0009990915370570086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.620104</v>
+      </c>
+      <c r="H21">
+        <v>1.860312</v>
+      </c>
+      <c r="I21">
+        <v>0.1303086072892496</v>
+      </c>
+      <c r="J21">
+        <v>0.1339989901339981</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.2807625</v>
+      </c>
+      <c r="N21">
+        <v>48.561525</v>
+      </c>
+      <c r="O21">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P21">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q21">
+        <v>15.0565979493</v>
+      </c>
+      <c r="R21">
+        <v>90.33958769580001</v>
+      </c>
+      <c r="S21">
+        <v>0.05154125090341976</v>
+      </c>
+      <c r="T21">
+        <v>0.04069999736097118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.393172</v>
+      </c>
+      <c r="H22">
+        <v>0.786344</v>
+      </c>
+      <c r="I22">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J22">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.470843666666667</v>
+      </c>
+      <c r="N22">
+        <v>10.412531</v>
+      </c>
+      <c r="O22">
+        <v>0.05653984104486641</v>
+      </c>
+      <c r="P22">
+        <v>0.0651263661336549</v>
+      </c>
+      <c r="Q22">
+        <v>1.364638546110667</v>
+      </c>
+      <c r="R22">
+        <v>8.187831276664001</v>
+      </c>
+      <c r="S22">
+        <v>0.004671385789433117</v>
+      </c>
+      <c r="T22">
+        <v>0.00368880044565219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.393172</v>
+      </c>
+      <c r="H23">
+        <v>0.786344</v>
+      </c>
+      <c r="I23">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J23">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N23">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O23">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P23">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q23">
+        <v>12.67689447323867</v>
+      </c>
+      <c r="R23">
+        <v>76.06136683943201</v>
+      </c>
+      <c r="S23">
+        <v>0.04339512823026173</v>
+      </c>
+      <c r="T23">
+        <v>0.03426734069299573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.393172</v>
+      </c>
+      <c r="H24">
+        <v>0.786344</v>
+      </c>
+      <c r="I24">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J24">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N24">
+        <v>2.987976</v>
+      </c>
+      <c r="O24">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P24">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q24">
+        <v>0.391596166624</v>
+      </c>
+      <c r="R24">
+        <v>2.349576999744</v>
+      </c>
+      <c r="S24">
+        <v>0.001340499118376426</v>
+      </c>
+      <c r="T24">
+        <v>0.001058536795751009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.393172</v>
+      </c>
+      <c r="H25">
+        <v>0.786344</v>
+      </c>
+      <c r="I25">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J25">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N25">
+        <v>1.192074</v>
+      </c>
+      <c r="O25">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P25">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q25">
+        <v>0.156230039576</v>
+      </c>
+      <c r="R25">
+        <v>0.937380237456</v>
+      </c>
+      <c r="S25">
+        <v>0.0005348015332249855</v>
+      </c>
+      <c r="T25">
+        <v>0.0004223106853127628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.393172</v>
+      </c>
+      <c r="H26">
+        <v>0.786344</v>
+      </c>
+      <c r="I26">
+        <v>0.08262113410835739</v>
+      </c>
+      <c r="J26">
+        <v>0.05664066129656134</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.2807625</v>
+      </c>
+      <c r="N26">
+        <v>48.561525</v>
+      </c>
+      <c r="O26">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P26">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q26">
+        <v>9.546515953650001</v>
+      </c>
+      <c r="R26">
+        <v>38.1860638146</v>
+      </c>
+      <c r="S26">
+        <v>0.03267931943706113</v>
+      </c>
+      <c r="T26">
+        <v>0.01720367267684965</v>
       </c>
     </row>
   </sheetData>
